--- a/REyeker-DataAnalyses-Python/data/code_flow/TR_BubbleSort.xlsx
+++ b/REyeker-DataAnalyses-Python/data/code_flow/TR_BubbleSort.xlsx
@@ -8,22 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
-    <sheet name="values" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>start</t>
   </si>
   <si>
     <t>stop</t>
-  </si>
-  <si>
-    <t>code flow</t>
   </si>
 </sst>
 </file>
@@ -400,325 +396,167 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B5">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B6">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B7">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B8">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B9">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B10">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B11">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B12">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B13">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B14">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B15">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B16">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B17">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B18">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B19">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B20">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B21">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B22">
         <v>543</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
